--- a/output/1Y_P105_KFSDIV.xlsx
+++ b/output/1Y_P105_KFSDIV.xlsx
@@ -727,16 +727,16 @@
         <v>10.9136</v>
       </c>
       <c r="C2" s="1">
-        <v>10.9136</v>
+        <v>10.8918</v>
       </c>
       <c r="D2" s="1">
-        <v>10.9136</v>
+        <v>10.9355</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>916.2879</v>
+        <v>914.4529</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
@@ -771,31 +771,31 @@
         <v>11.2587</v>
       </c>
       <c r="C3" s="1">
-        <v>11.2586</v>
+        <v>11.2362</v>
       </c>
       <c r="D3" s="1">
-        <v>11.2587</v>
+        <v>11.2813</v>
       </c>
       <c r="E3" s="1">
-        <v>916.2879</v>
+        <v>914.4529</v>
       </c>
       <c r="F3" s="1">
-        <v>888.202</v>
+        <v>886.4227</v>
       </c>
       <c r="H3" s="1">
-        <v>10316.1193</v>
+        <v>10274.976</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10316.1193</v>
+        <v>10274.976</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>10.9136</v>
+        <v>10.9355</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -810,7 +810,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0316</v>
+        <v>0.0275</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -821,31 +821,31 @@
         <v>11.6434</v>
       </c>
       <c r="C4" s="1">
-        <v>11.6434</v>
+        <v>11.6201</v>
       </c>
       <c r="D4" s="1">
-        <v>11.6434</v>
+        <v>11.6667</v>
       </c>
       <c r="E4" s="1">
-        <v>1804.4899</v>
+        <v>1800.8756</v>
       </c>
       <c r="F4" s="1">
-        <v>858.8557</v>
+        <v>857.1404</v>
       </c>
       <c r="H4" s="1">
-        <v>21010.3982</v>
+        <v>20926.3545</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>21010.3982</v>
+        <v>20926.3545</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>11.0835</v>
+        <v>11.1057</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0342</v>
+        <v>0.0321</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -871,46 +871,46 @@
         <v>11.3141</v>
       </c>
       <c r="C5" s="1">
-        <v>11.3141</v>
+        <v>11.2915</v>
       </c>
       <c r="D5" s="1">
-        <v>11.3141</v>
+        <v>11.3368</v>
       </c>
       <c r="E5" s="1">
-        <v>2663.3456</v>
+        <v>2658.016</v>
       </c>
       <c r="F5" s="1">
-        <v>883.8529</v>
+        <v>882.0830999999999</v>
       </c>
       <c r="H5" s="1">
-        <v>30133.3585</v>
+        <v>30012.9877</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>30133.3585</v>
+        <v>30012.9877</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>11.264</v>
+        <v>11.2866</v>
       </c>
       <c r="M5" s="1">
         <v>0.4</v>
       </c>
       <c r="N5" s="1">
-        <v>649.6164</v>
+        <v>648.3152</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9350.383599999999</v>
+        <v>-9351.684800000001</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0283</v>
+        <v>-0.0295</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -921,31 +921,31 @@
         <v>11.003</v>
       </c>
       <c r="C6" s="1">
-        <v>11.003</v>
+        <v>10.981</v>
       </c>
       <c r="D6" s="1">
-        <v>11.003</v>
+        <v>11.0251</v>
       </c>
       <c r="E6" s="1">
-        <v>3547.1985</v>
+        <v>3540.0991</v>
       </c>
       <c r="F6" s="1">
-        <v>916.223</v>
+        <v>914.3717</v>
       </c>
       <c r="H6" s="1">
-        <v>39029.8251</v>
+        <v>38873.8285</v>
       </c>
       <c r="I6" s="1">
-        <v>649.6164</v>
+        <v>648.3152</v>
       </c>
       <c r="J6" s="1">
-        <v>39679.4415</v>
+        <v>39522.1437</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>11.2765</v>
+        <v>11.2991</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -957,10 +957,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10081.202</v>
+        <v>-10081.0394</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0113</v>
+        <v>-0.0123</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -971,31 +971,31 @@
         <v>11.1102</v>
       </c>
       <c r="C7" s="1">
-        <v>11.1102</v>
+        <v>11.088</v>
       </c>
       <c r="D7" s="1">
-        <v>11.1103</v>
+        <v>11.1325</v>
       </c>
       <c r="E7" s="1">
-        <v>4463.4215</v>
+        <v>4454.4708</v>
       </c>
       <c r="F7" s="1">
-        <v>907.3744</v>
+        <v>905.5504</v>
       </c>
       <c r="H7" s="1">
-        <v>49589.5059</v>
+        <v>49391.1725</v>
       </c>
       <c r="I7" s="1">
-        <v>568.4143</v>
+        <v>567.2758</v>
       </c>
       <c r="J7" s="1">
-        <v>50157.9203</v>
+        <v>49958.4483</v>
       </c>
       <c r="K7" s="1">
-        <v>50081.202</v>
+        <v>50081.0394</v>
       </c>
       <c r="L7" s="1">
-        <v>11.2204</v>
+        <v>11.2429</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -1007,10 +1007,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10081.202</v>
+        <v>-10081.0394</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.009599999999999999</v>
+        <v>0.008800000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1021,46 +1021,46 @@
         <v>10.623</v>
       </c>
       <c r="C8" s="1">
-        <v>10.623</v>
+        <v>10.6017</v>
       </c>
       <c r="D8" s="1">
-        <v>10.623</v>
+        <v>10.6443</v>
       </c>
       <c r="E8" s="1">
-        <v>5370.796</v>
+        <v>5360.0212</v>
       </c>
       <c r="F8" s="1">
-        <v>948.9977</v>
+        <v>947.0834</v>
       </c>
       <c r="H8" s="1">
-        <v>57053.9654</v>
+        <v>56825.3366</v>
       </c>
       <c r="I8" s="1">
-        <v>487.2123</v>
+        <v>486.2364</v>
       </c>
       <c r="J8" s="1">
-        <v>57541.1777</v>
+        <v>57311.573</v>
       </c>
       <c r="K8" s="1">
-        <v>60162.4041</v>
+        <v>60162.0788</v>
       </c>
       <c r="L8" s="1">
-        <v>11.2018</v>
+        <v>11.2242</v>
       </c>
       <c r="M8" s="1">
         <v>0.1</v>
       </c>
       <c r="N8" s="1">
-        <v>401.7079</v>
+        <v>400.9024</v>
       </c>
       <c r="O8" s="1">
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-9679.4941</v>
+        <v>-9680.137000000001</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0435</v>
+        <v>-0.0441</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1071,31 +1071,31 @@
         <v>9.977</v>
       </c>
       <c r="C9" s="1">
-        <v>9.977</v>
+        <v>9.957000000000001</v>
       </c>
       <c r="D9" s="1">
-        <v>9.977</v>
+        <v>9.997</v>
       </c>
       <c r="E9" s="1">
-        <v>6319.7936</v>
+        <v>6307.1045</v>
       </c>
       <c r="F9" s="1">
-        <v>1018.4969</v>
+        <v>1016.4269</v>
       </c>
       <c r="H9" s="1">
-        <v>63052.5808</v>
+        <v>62799.84</v>
       </c>
       <c r="I9" s="1">
-        <v>807.7182</v>
+        <v>806.0993999999999</v>
       </c>
       <c r="J9" s="1">
-        <v>63860.299</v>
+        <v>63605.9394</v>
       </c>
       <c r="K9" s="1">
-        <v>70243.6061</v>
+        <v>70243.1182</v>
       </c>
       <c r="L9" s="1">
-        <v>11.1149</v>
+        <v>11.1371</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -1107,10 +1107,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-10161.5436</v>
+        <v>-10161.2199</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0545</v>
+        <v>-0.0551</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1121,31 +1121,31 @@
         <v>10.5542</v>
       </c>
       <c r="C10" s="1">
-        <v>10.5542</v>
+        <v>10.5331</v>
       </c>
       <c r="D10" s="1">
-        <v>10.5542</v>
+        <v>10.5754</v>
       </c>
       <c r="E10" s="1">
-        <v>7338.2905</v>
+        <v>7323.5315</v>
       </c>
       <c r="F10" s="1">
-        <v>962.7962</v>
+        <v>960.8355</v>
       </c>
       <c r="H10" s="1">
-        <v>77449.78569999999</v>
+        <v>77139.4892</v>
       </c>
       <c r="I10" s="1">
-        <v>646.1745</v>
+        <v>644.8795</v>
       </c>
       <c r="J10" s="1">
-        <v>78095.96030000001</v>
+        <v>77784.3688</v>
       </c>
       <c r="K10" s="1">
-        <v>80405.1498</v>
+        <v>80404.33809999999</v>
       </c>
       <c r="L10" s="1">
-        <v>10.9569</v>
+        <v>10.9789</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -1157,10 +1157,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-10161.5436</v>
+        <v>-10161.2199</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0573</v>
+        <v>0.0568</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1171,31 +1171,31 @@
         <v>10.7815</v>
       </c>
       <c r="C11" s="1">
-        <v>10.7815</v>
+        <v>10.7599</v>
       </c>
       <c r="D11" s="1">
-        <v>10.7815</v>
+        <v>10.8031</v>
       </c>
       <c r="E11" s="1">
-        <v>8301.0867</v>
+        <v>8284.367</v>
       </c>
       <c r="F11" s="1">
-        <v>942.4981</v>
+        <v>940.5837</v>
       </c>
       <c r="H11" s="1">
-        <v>89498.1664</v>
+        <v>89138.9602</v>
       </c>
       <c r="I11" s="1">
-        <v>484.6309</v>
+        <v>483.6596</v>
       </c>
       <c r="J11" s="1">
-        <v>89982.79730000001</v>
+        <v>89622.6198</v>
       </c>
       <c r="K11" s="1">
-        <v>90566.6934</v>
+        <v>90565.558</v>
       </c>
       <c r="L11" s="1">
-        <v>10.9102</v>
+        <v>10.9321</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -1207,10 +1207,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-10161.5436</v>
+        <v>-10161.2199</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0214</v>
+        <v>0.0209</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1221,31 +1221,31 @@
         <v>10.9292</v>
       </c>
       <c r="C12" s="1">
-        <v>10.9292</v>
+        <v>10.9073</v>
       </c>
       <c r="D12" s="1">
-        <v>10.9292</v>
+        <v>10.9511</v>
       </c>
       <c r="E12" s="1">
-        <v>9243.584800000001</v>
+        <v>9224.950699999999</v>
       </c>
       <c r="F12" s="1">
-        <v>929.761</v>
+        <v>927.8721</v>
       </c>
       <c r="H12" s="1">
-        <v>101024.9875</v>
+        <v>100619.3046</v>
       </c>
       <c r="I12" s="1">
-        <v>323.0873</v>
+        <v>322.4398</v>
       </c>
       <c r="J12" s="1">
-        <v>101348.0748</v>
+        <v>100941.7444</v>
       </c>
       <c r="K12" s="1">
-        <v>100728.237</v>
+        <v>100726.7778</v>
       </c>
       <c r="L12" s="1">
-        <v>10.8971</v>
+        <v>10.919</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-10161.5436</v>
+        <v>-10161.2199</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0137</v>
+        <v>0.0132</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1271,31 +1271,31 @@
         <v>10.337</v>
       </c>
       <c r="C13" s="1">
-        <v>10.337</v>
+        <v>10.3163</v>
       </c>
       <c r="D13" s="1">
-        <v>10.337</v>
+        <v>10.3577</v>
       </c>
       <c r="E13" s="1">
-        <v>10173.3458</v>
+        <v>10152.8228</v>
       </c>
       <c r="F13" s="1">
-        <v>983.0264</v>
+        <v>981.0305</v>
       </c>
       <c r="H13" s="1">
-        <v>105161.8757</v>
+        <v>104739.5654</v>
       </c>
       <c r="I13" s="1">
-        <v>161.5436</v>
+        <v>161.2199</v>
       </c>
       <c r="J13" s="1">
-        <v>105323.4194</v>
+        <v>104900.7853</v>
       </c>
       <c r="K13" s="1">
-        <v>110889.7807</v>
+        <v>110887.9977</v>
       </c>
       <c r="L13" s="1">
-        <v>10.9</v>
+        <v>10.9219</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -1307,10 +1307,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-10161.5436</v>
+        <v>-10161.2199</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0541</v>
+        <v>-0.0545</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1321,46 +1321,46 @@
         <v>9.6417</v>
       </c>
       <c r="C14" s="1">
-        <v>9.6417</v>
+        <v>9.622400000000001</v>
       </c>
       <c r="D14" s="1">
-        <v>9.6417</v>
+        <v>9.661</v>
       </c>
       <c r="E14" s="1">
-        <v>11156.3722</v>
+        <v>11133.8533</v>
       </c>
       <c r="F14" s="1">
-        <v>-11156.3722</v>
+        <v>-11133.8533</v>
       </c>
       <c r="H14" s="1">
-        <v>107566.3938</v>
+        <v>107134.3899</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>107566.3938</v>
+        <v>107134.3899</v>
       </c>
       <c r="K14" s="1">
-        <v>121051.3243</v>
+        <v>121049.2176</v>
       </c>
       <c r="L14" s="1">
-        <v>10.8504</v>
+        <v>10.8722</v>
       </c>
       <c r="M14" s="1">
         <v>0.5</v>
       </c>
       <c r="N14" s="1">
-        <v>4578.0056</v>
+        <v>4568.7702</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>112144.3994</v>
+        <v>111703.1601</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0673</v>
+        <v>-0.06759999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1384,7 +1384,7 @@
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="1" customWidth="1"/>
     <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
     <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
     <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
@@ -1456,16 +1456,16 @@
         <v>10.9136</v>
       </c>
       <c r="C2" s="1">
-        <v>10.9136</v>
+        <v>10.8918</v>
       </c>
       <c r="D2" s="1">
-        <v>10.9136</v>
+        <v>10.9355</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>916.2879</v>
+        <v>914.4529</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -1503,34 +1503,34 @@
         <v>11.2587</v>
       </c>
       <c r="C3" s="1">
-        <v>11.2586</v>
+        <v>11.2362</v>
       </c>
       <c r="D3" s="1">
-        <v>11.2587</v>
+        <v>11.2813</v>
       </c>
       <c r="E3" s="1">
-        <v>916.2879</v>
+        <v>914.4529</v>
       </c>
       <c r="F3" s="1">
-        <v>860.1319</v>
+        <v>865.5083</v>
       </c>
       <c r="G3" s="1">
         <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>10316.1193</v>
+        <v>10274.976</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10316.1193</v>
+        <v>10274.976</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>10.9136</v>
+        <v>10.9355</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -1542,10 +1542,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9683.966700000001</v>
+        <v>-9764.0584</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0316</v>
+        <v>0.0275</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1556,34 +1556,34 @@
         <v>11.6434</v>
       </c>
       <c r="C4" s="1">
-        <v>11.6434</v>
+        <v>11.6201</v>
       </c>
       <c r="D4" s="1">
-        <v>11.6434</v>
+        <v>11.6667</v>
       </c>
       <c r="E4" s="1">
-        <v>1776.4198</v>
+        <v>1779.9612</v>
       </c>
       <c r="F4" s="1">
-        <v>800.1472</v>
+        <v>801.7722</v>
       </c>
       <c r="G4" s="1">
         <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>20683.5663</v>
+        <v>20683.3271</v>
       </c>
       <c r="I4" s="1">
-        <v>316.0333</v>
+        <v>235.9416</v>
       </c>
       <c r="J4" s="1">
-        <v>20999.5997</v>
+        <v>20919.2687</v>
       </c>
       <c r="K4" s="1">
-        <v>19683.9667</v>
+        <v>19764.0584</v>
       </c>
       <c r="L4" s="1">
-        <v>11.0807</v>
+        <v>11.1036</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -1595,10 +1595,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9316.4337</v>
+        <v>-9354.0355</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0336</v>
+        <v>0.0318</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1609,49 +1609,49 @@
         <v>11.3141</v>
       </c>
       <c r="C5" s="1">
-        <v>11.3141</v>
+        <v>11.2915</v>
       </c>
       <c r="D5" s="1">
-        <v>11.3141</v>
+        <v>11.3368</v>
       </c>
       <c r="E5" s="1">
-        <v>2576.567</v>
+        <v>2581.7334</v>
       </c>
       <c r="F5" s="1">
-        <v>958.8446</v>
+        <v>960.7542999999999</v>
       </c>
       <c r="G5" s="1">
         <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>29151.5365</v>
+        <v>29151.6424</v>
       </c>
       <c r="I5" s="1">
-        <v>999.5997</v>
+        <v>881.9061</v>
       </c>
       <c r="J5" s="1">
-        <v>30151.1362</v>
+        <v>30033.5485</v>
       </c>
       <c r="K5" s="1">
-        <v>29000.4003</v>
+        <v>29118.0939</v>
       </c>
       <c r="L5" s="1">
-        <v>11.2554</v>
+        <v>11.2785</v>
       </c>
       <c r="M5" s="1">
         <v>0.4</v>
       </c>
       <c r="N5" s="1">
-        <v>639.5111000000001</v>
+        <v>640.7859999999999</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-10208.9524</v>
+        <v>-10251.0937</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0274</v>
+        <v>-0.0286</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1662,34 +1662,34 @@
         <v>11.003</v>
       </c>
       <c r="C6" s="1">
-        <v>11.003</v>
+        <v>10.981</v>
       </c>
       <c r="D6" s="1">
-        <v>11.003</v>
+        <v>11.0251</v>
       </c>
       <c r="E6" s="1">
-        <v>3535.4116</v>
+        <v>3542.4877</v>
       </c>
       <c r="F6" s="1">
-        <v>980.7005</v>
+        <v>964.2373</v>
       </c>
       <c r="G6" s="1">
         <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>38900.1335</v>
+        <v>38900.0576</v>
       </c>
       <c r="I6" s="1">
-        <v>790.6473</v>
+        <v>630.8124</v>
       </c>
       <c r="J6" s="1">
-        <v>39690.7807</v>
+        <v>39530.8699</v>
       </c>
       <c r="K6" s="1">
-        <v>39848.8638</v>
+        <v>40009.9737</v>
       </c>
       <c r="L6" s="1">
-        <v>11.2714</v>
+        <v>11.2943</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -1701,10 +1701,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10790.6473</v>
+        <v>-10630.8124</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0115</v>
+        <v>-0.0126</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1715,34 +1715,34 @@
         <v>11.1102</v>
       </c>
       <c r="C7" s="1">
-        <v>11.1102</v>
+        <v>11.088</v>
       </c>
       <c r="D7" s="1">
-        <v>11.1103</v>
+        <v>11.1325</v>
       </c>
       <c r="E7" s="1">
-        <v>4516.112</v>
+        <v>4506.725</v>
       </c>
       <c r="F7" s="1">
-        <v>884.3308</v>
+        <v>898.2708</v>
       </c>
       <c r="G7" s="1">
         <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>50174.908</v>
+        <v>49970.5666</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>50174.908</v>
+        <v>49970.5666</v>
       </c>
       <c r="K7" s="1">
-        <v>50639.5111</v>
+        <v>50640.786</v>
       </c>
       <c r="L7" s="1">
-        <v>11.2131</v>
+        <v>11.2367</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -1754,10 +1754,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-9825.1805</v>
+        <v>-10000</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0097</v>
+        <v>0.0089</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1768,49 +1768,49 @@
         <v>10.623</v>
       </c>
       <c r="C8" s="1">
-        <v>10.623</v>
+        <v>10.6017</v>
       </c>
       <c r="D8" s="1">
-        <v>10.623</v>
+        <v>10.6443</v>
       </c>
       <c r="E8" s="1">
-        <v>5400.4428</v>
+        <v>5404.9958</v>
       </c>
       <c r="F8" s="1">
-        <v>957.8104</v>
+        <v>939.47</v>
       </c>
       <c r="G8" s="1">
         <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>57368.9043</v>
+        <v>57302.1441</v>
       </c>
       <c r="I8" s="1">
-        <v>174.8195</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>57543.7238</v>
+        <v>57302.1441</v>
       </c>
       <c r="K8" s="1">
-        <v>60464.6916</v>
+        <v>60640.786</v>
       </c>
       <c r="L8" s="1">
-        <v>11.1962</v>
+        <v>11.2194</v>
       </c>
       <c r="M8" s="1">
         <v>0.1</v>
       </c>
       <c r="N8" s="1">
-        <v>406.4501</v>
+        <v>405.6052</v>
       </c>
       <c r="O8" s="1">
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-9768.3694</v>
+        <v>-9594.3948</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0437</v>
+        <v>-0.0445</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1821,34 +1821,34 @@
         <v>9.977</v>
       </c>
       <c r="C9" s="1">
-        <v>9.977</v>
+        <v>9.957000000000001</v>
       </c>
       <c r="D9" s="1">
-        <v>9.977</v>
+        <v>9.997</v>
       </c>
       <c r="E9" s="1">
-        <v>6358.2532</v>
+        <v>6344.4658</v>
       </c>
       <c r="F9" s="1">
-        <v>1043.044</v>
+        <v>1040.8728</v>
       </c>
       <c r="G9" s="1">
         <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>63436.2922</v>
+        <v>63171.8456</v>
       </c>
       <c r="I9" s="1">
-        <v>406.4501</v>
+        <v>405.6052</v>
       </c>
       <c r="J9" s="1">
-        <v>63842.7423</v>
+        <v>63577.4509</v>
       </c>
       <c r="K9" s="1">
-        <v>70639.5111</v>
+        <v>70640.78599999999</v>
       </c>
       <c r="L9" s="1">
-        <v>11.1099</v>
+        <v>11.1342</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -1860,10 +1860,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-10406.4501</v>
+        <v>-10405.6052</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0548</v>
+        <v>-0.0553</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1874,34 +1874,34 @@
         <v>10.5542</v>
       </c>
       <c r="C10" s="1">
-        <v>10.5542</v>
+        <v>10.5331</v>
       </c>
       <c r="D10" s="1">
-        <v>10.5542</v>
+        <v>10.5754</v>
       </c>
       <c r="E10" s="1">
-        <v>7401.2972</v>
+        <v>7385.3386</v>
       </c>
       <c r="F10" s="1">
-        <v>947.4901</v>
+        <v>945.5907</v>
       </c>
       <c r="G10" s="1">
         <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>78114.77099999999</v>
+        <v>77790.5095</v>
       </c>
       <c r="I10" s="1">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J10" s="1">
-        <v>78114.77099999999</v>
+        <v>77790.5095</v>
       </c>
       <c r="K10" s="1">
-        <v>81045.96120000001</v>
+        <v>81046.3913</v>
       </c>
       <c r="L10" s="1">
-        <v>10.9502</v>
+        <v>10.974</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -1916,7 +1916,7 @@
         <v>-10000</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0579</v>
+        <v>0.0573</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1927,34 +1927,34 @@
         <v>10.7815</v>
       </c>
       <c r="C11" s="1">
-        <v>10.7815</v>
+        <v>10.7599</v>
       </c>
       <c r="D11" s="1">
-        <v>10.7815</v>
+        <v>10.8031</v>
       </c>
       <c r="E11" s="1">
-        <v>8348.7873</v>
+        <v>8330.9293</v>
       </c>
       <c r="F11" s="1">
-        <v>926.3599</v>
+        <v>925.6602</v>
       </c>
       <c r="G11" s="1">
         <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>90012.4504</v>
+        <v>89639.96580000001</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>90012.4504</v>
+        <v>89639.96580000001</v>
       </c>
       <c r="K11" s="1">
-        <v>91045.96120000001</v>
+        <v>91046.3913</v>
       </c>
       <c r="L11" s="1">
-        <v>10.9053</v>
+        <v>10.9287</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -1966,10 +1966,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-9987.5496</v>
+        <v>-10000</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0215</v>
+        <v>0.0211</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1980,34 +1980,34 @@
         <v>10.9292</v>
       </c>
       <c r="C12" s="1">
-        <v>10.9292</v>
+        <v>10.9073</v>
       </c>
       <c r="D12" s="1">
-        <v>10.9292</v>
+        <v>10.9511</v>
       </c>
       <c r="E12" s="1">
-        <v>9275.147199999999</v>
+        <v>9256.5895</v>
       </c>
       <c r="F12" s="1">
-        <v>789.6333</v>
+        <v>828.3995</v>
       </c>
       <c r="G12" s="1">
         <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>101369.9392</v>
+        <v>100964.3985</v>
       </c>
       <c r="I12" s="1">
-        <v>12.4504</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>101382.3896</v>
+        <v>100964.3985</v>
       </c>
       <c r="K12" s="1">
-        <v>101033.5108</v>
+        <v>101046.3913</v>
       </c>
       <c r="L12" s="1">
-        <v>10.8929</v>
+        <v>10.9162</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-8630.060799999999</v>
+        <v>-9071.885399999999</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0137</v>
+        <v>0.0133</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2033,34 +2033,34 @@
         <v>10.337</v>
       </c>
       <c r="C13" s="1">
-        <v>10.337</v>
+        <v>10.3163</v>
       </c>
       <c r="D13" s="1">
-        <v>10.337</v>
+        <v>10.3577</v>
       </c>
       <c r="E13" s="1">
-        <v>10064.7806</v>
+        <v>10084.989</v>
       </c>
       <c r="F13" s="1">
-        <v>1101.1309</v>
+        <v>1055.0716</v>
       </c>
       <c r="G13" s="1">
         <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>104039.6369</v>
+        <v>104039.7715</v>
       </c>
       <c r="I13" s="1">
-        <v>1382.3896</v>
+        <v>928.1146</v>
       </c>
       <c r="J13" s="1">
-        <v>105422.0266</v>
+        <v>104967.8862</v>
       </c>
       <c r="K13" s="1">
-        <v>109663.5716</v>
+        <v>110118.2766</v>
       </c>
       <c r="L13" s="1">
-        <v>10.8958</v>
+        <v>10.919</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -2072,10 +2072,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-11382.3896</v>
+        <v>-10928.1146</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0535</v>
+        <v>-0.054</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2086,49 +2086,49 @@
         <v>9.6417</v>
       </c>
       <c r="C14" s="1">
-        <v>9.6417</v>
+        <v>9.622400000000001</v>
       </c>
       <c r="D14" s="1">
-        <v>9.6417</v>
+        <v>9.661</v>
       </c>
       <c r="E14" s="1">
-        <v>11165.9114</v>
+        <v>11140.0605</v>
       </c>
       <c r="F14" s="1">
-        <v>-11165.9114</v>
+        <v>-11140.0605</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>107658.3684</v>
+        <v>107194.1182</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>107658.3684</v>
+        <v>107194.1182</v>
       </c>
       <c r="K14" s="1">
-        <v>121045.9612</v>
+        <v>121046.3913</v>
       </c>
       <c r="L14" s="1">
-        <v>10.8407</v>
+        <v>10.8659</v>
       </c>
       <c r="M14" s="1">
         <v>0.5</v>
       </c>
       <c r="N14" s="1">
-        <v>4529.1513</v>
+        <v>4538.245</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>112187.5196</v>
+        <v>111732.3633</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0673</v>
+        <v>-0.06759999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -2224,16 +2224,16 @@
         <v>10.9136</v>
       </c>
       <c r="C2" s="1">
-        <v>10.9136</v>
+        <v>10.8918</v>
       </c>
       <c r="D2" s="1">
-        <v>10.9136</v>
+        <v>10.9355</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>916.2879</v>
+        <v>914.4529</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -2271,34 +2271,34 @@
         <v>11.2587</v>
       </c>
       <c r="C3" s="1">
-        <v>11.2586</v>
+        <v>11.2362</v>
       </c>
       <c r="D3" s="1">
-        <v>11.2587</v>
+        <v>11.2813</v>
       </c>
       <c r="E3" s="1">
-        <v>916.2879</v>
+        <v>914.4529</v>
       </c>
       <c r="F3" s="1">
-        <v>864.5729</v>
+        <v>869.9582</v>
       </c>
       <c r="G3" s="1">
         <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>10316.1193</v>
+        <v>10274.976</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10316.1193</v>
+        <v>10274.976</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>10.9136</v>
+        <v>10.9355</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -2310,10 +2310,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9733.9671</v>
+        <v>-9814.259099999999</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0316</v>
+        <v>0.0275</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2324,34 +2324,34 @@
         <v>11.6434</v>
       </c>
       <c r="C4" s="1">
-        <v>11.6434</v>
+        <v>11.6201</v>
       </c>
       <c r="D4" s="1">
-        <v>11.6434</v>
+        <v>11.6667</v>
       </c>
       <c r="E4" s="1">
-        <v>1780.8609</v>
+        <v>1784.4111</v>
       </c>
       <c r="F4" s="1">
-        <v>808.6104</v>
+        <v>810.2525000000001</v>
       </c>
       <c r="G4" s="1">
         <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>20735.2753</v>
+        <v>20735.0354</v>
       </c>
       <c r="I4" s="1">
-        <v>266.0329</v>
+        <v>185.7409</v>
       </c>
       <c r="J4" s="1">
-        <v>21001.3081</v>
+        <v>20920.7763</v>
       </c>
       <c r="K4" s="1">
-        <v>19733.9671</v>
+        <v>19814.2591</v>
       </c>
       <c r="L4" s="1">
-        <v>11.0811</v>
+        <v>11.1041</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -2363,10 +2363,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9414.974700000001</v>
+        <v>-9452.972299999999</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0337</v>
+        <v>0.0319</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2377,49 +2377,49 @@
         <v>11.3141</v>
       </c>
       <c r="C5" s="1">
-        <v>11.3141</v>
+        <v>11.2915</v>
       </c>
       <c r="D5" s="1">
-        <v>11.3141</v>
+        <v>11.3368</v>
       </c>
       <c r="E5" s="1">
-        <v>2589.4713</v>
+        <v>2594.6636</v>
       </c>
       <c r="F5" s="1">
-        <v>959.0739</v>
+        <v>946.7194</v>
       </c>
       <c r="G5" s="1">
         <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>29297.5371</v>
+        <v>29297.6436</v>
       </c>
       <c r="I5" s="1">
-        <v>851.0581</v>
+        <v>732.7685</v>
       </c>
       <c r="J5" s="1">
-        <v>30148.5952</v>
+        <v>30030.4121</v>
       </c>
       <c r="K5" s="1">
-        <v>29148.9419</v>
+        <v>29267.2315</v>
       </c>
       <c r="L5" s="1">
-        <v>11.2567</v>
+        <v>11.2798</v>
       </c>
       <c r="M5" s="1">
         <v>0.4</v>
       </c>
       <c r="N5" s="1">
-        <v>641.1099</v>
+        <v>642.388</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-10209.9482</v>
+        <v>-10090.3805</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0275</v>
+        <v>-0.0288</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2430,34 +2430,34 @@
         <v>11.003</v>
       </c>
       <c r="C6" s="1">
-        <v>11.003</v>
+        <v>10.981</v>
       </c>
       <c r="D6" s="1">
-        <v>11.003</v>
+        <v>11.0251</v>
       </c>
       <c r="E6" s="1">
-        <v>3548.5452</v>
+        <v>3541.383</v>
       </c>
       <c r="F6" s="1">
-        <v>967.1099</v>
+        <v>965.2872</v>
       </c>
       <c r="G6" s="1">
         <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>39044.6428</v>
+        <v>38887.9263</v>
       </c>
       <c r="I6" s="1">
-        <v>641.1099</v>
+        <v>642.388</v>
       </c>
       <c r="J6" s="1">
-        <v>39685.7527</v>
+        <v>39530.3143</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>11.2722</v>
+        <v>11.295</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -2469,10 +2469,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10641.1099</v>
+        <v>-10642.388</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0115</v>
+        <v>-0.0125</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2483,34 +2483,34 @@
         <v>11.1102</v>
       </c>
       <c r="C7" s="1">
-        <v>11.1102</v>
+        <v>11.088</v>
       </c>
       <c r="D7" s="1">
-        <v>11.1103</v>
+        <v>11.1325</v>
       </c>
       <c r="E7" s="1">
-        <v>4515.6551</v>
+        <v>4506.6702</v>
       </c>
       <c r="F7" s="1">
-        <v>900.0657</v>
+        <v>898.2708</v>
       </c>
       <c r="G7" s="1">
         <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>50169.831</v>
+        <v>49969.9588</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>50169.831</v>
+        <v>49969.9588</v>
       </c>
       <c r="K7" s="1">
-        <v>50641.1099</v>
+        <v>50642.388</v>
       </c>
       <c r="L7" s="1">
-        <v>11.2146</v>
+        <v>11.2372</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -2525,7 +2525,7 @@
         <v>-10000</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0097</v>
+        <v>0.0089</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2536,49 +2536,49 @@
         <v>10.623</v>
       </c>
       <c r="C8" s="1">
-        <v>10.623</v>
+        <v>10.6017</v>
       </c>
       <c r="D8" s="1">
-        <v>10.623</v>
+        <v>10.6443</v>
       </c>
       <c r="E8" s="1">
-        <v>5415.7208</v>
+        <v>5404.941</v>
       </c>
       <c r="F8" s="1">
-        <v>941.3537</v>
+        <v>939.47</v>
       </c>
       <c r="G8" s="1">
         <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>57531.2018</v>
+        <v>57301.563</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>57531.2018</v>
+        <v>57301.563</v>
       </c>
       <c r="K8" s="1">
-        <v>60641.1099</v>
+        <v>60642.388</v>
       </c>
       <c r="L8" s="1">
-        <v>11.1972</v>
+        <v>11.2198</v>
       </c>
       <c r="M8" s="1">
         <v>0.1</v>
       </c>
       <c r="N8" s="1">
-        <v>406.409</v>
+        <v>405.6003</v>
       </c>
       <c r="O8" s="1">
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-9593.591</v>
+        <v>-9594.3997</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0439</v>
+        <v>-0.0445</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2589,34 +2589,34 @@
         <v>9.977</v>
       </c>
       <c r="C9" s="1">
-        <v>9.977</v>
+        <v>9.957000000000001</v>
       </c>
       <c r="D9" s="1">
-        <v>9.977</v>
+        <v>9.997</v>
       </c>
       <c r="E9" s="1">
-        <v>6357.0744</v>
+        <v>6344.4109</v>
       </c>
       <c r="F9" s="1">
-        <v>1043.0399</v>
+        <v>1040.8723</v>
       </c>
       <c r="G9" s="1">
         <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>63424.5317</v>
+        <v>63171.2998</v>
       </c>
       <c r="I9" s="1">
-        <v>406.409</v>
+        <v>405.6003</v>
       </c>
       <c r="J9" s="1">
-        <v>63830.9407</v>
+        <v>63576.9001</v>
       </c>
       <c r="K9" s="1">
-        <v>70641.1099</v>
+        <v>70642.38800000001</v>
       </c>
       <c r="L9" s="1">
-        <v>11.1122</v>
+        <v>11.1346</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -2628,10 +2628,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-10406.409</v>
+        <v>-10405.6003</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0548</v>
+        <v>-0.0553</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2642,34 +2642,34 @@
         <v>10.5542</v>
       </c>
       <c r="C10" s="1">
-        <v>10.5542</v>
+        <v>10.5331</v>
       </c>
       <c r="D10" s="1">
-        <v>10.5542</v>
+        <v>10.5754</v>
       </c>
       <c r="E10" s="1">
-        <v>7400.1143</v>
+        <v>7385.2832</v>
       </c>
       <c r="F10" s="1">
-        <v>947.4901</v>
+        <v>945.5907</v>
       </c>
       <c r="G10" s="1">
         <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>78102.28660000001</v>
+        <v>77789.92690000001</v>
       </c>
       <c r="I10" s="1">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J10" s="1">
-        <v>78102.28660000001</v>
+        <v>77789.92690000001</v>
       </c>
       <c r="K10" s="1">
-        <v>81047.5189</v>
+        <v>81047.9883</v>
       </c>
       <c r="L10" s="1">
-        <v>10.9522</v>
+        <v>10.9743</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>-10000</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0579</v>
+        <v>0.0573</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2695,34 +2695,34 @@
         <v>10.7815</v>
       </c>
       <c r="C11" s="1">
-        <v>10.7815</v>
+        <v>10.7599</v>
       </c>
       <c r="D11" s="1">
-        <v>10.7815</v>
+        <v>10.8031</v>
       </c>
       <c r="E11" s="1">
-        <v>8347.6044</v>
+        <v>8330.874</v>
       </c>
       <c r="F11" s="1">
-        <v>927.5146999999999</v>
+        <v>925.6602</v>
       </c>
       <c r="G11" s="1">
         <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>89999.6971</v>
+        <v>89639.37059999999</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>89999.6971</v>
+        <v>89639.37059999999</v>
       </c>
       <c r="K11" s="1">
-        <v>91047.5189</v>
+        <v>91047.9883</v>
       </c>
       <c r="L11" s="1">
-        <v>10.907</v>
+        <v>10.929</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -2737,7 +2737,7 @@
         <v>-10000</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0215</v>
+        <v>0.0211</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2748,34 +2748,34 @@
         <v>10.9292</v>
       </c>
       <c r="C12" s="1">
-        <v>10.9292</v>
+        <v>10.9073</v>
       </c>
       <c r="D12" s="1">
-        <v>10.9292</v>
+        <v>10.9511</v>
       </c>
       <c r="E12" s="1">
-        <v>9275.119199999999</v>
+        <v>9256.5342</v>
       </c>
       <c r="F12" s="1">
-        <v>914.9801</v>
+        <v>913.1503</v>
       </c>
       <c r="G12" s="1">
         <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>101369.6322</v>
+        <v>100963.7953</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>101369.6322</v>
+        <v>100963.7953</v>
       </c>
       <c r="K12" s="1">
-        <v>101047.5189</v>
+        <v>101047.9883</v>
       </c>
       <c r="L12" s="1">
-        <v>10.8945</v>
+        <v>10.9164</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -2790,7 +2790,7 @@
         <v>-10000</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0137</v>
+        <v>0.0133</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2801,34 +2801,34 @@
         <v>10.337</v>
       </c>
       <c r="C13" s="1">
-        <v>10.337</v>
+        <v>10.3163</v>
       </c>
       <c r="D13" s="1">
-        <v>10.337</v>
+        <v>10.3577</v>
       </c>
       <c r="E13" s="1">
-        <v>10190.0992</v>
+        <v>10169.6845</v>
       </c>
       <c r="F13" s="1">
-        <v>967.3987</v>
+        <v>965.4653</v>
       </c>
       <c r="G13" s="1">
         <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>105335.0555</v>
+        <v>104913.5158</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>105335.0555</v>
+        <v>104913.5158</v>
       </c>
       <c r="K13" s="1">
-        <v>111047.5189</v>
+        <v>111047.9883</v>
       </c>
       <c r="L13" s="1">
-        <v>10.8976</v>
+        <v>10.9195</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -2843,7 +2843,7 @@
         <v>-10000</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0542</v>
+        <v>-0.0545</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2854,49 +2854,49 @@
         <v>9.6417</v>
       </c>
       <c r="C14" s="1">
-        <v>9.6417</v>
+        <v>9.622400000000001</v>
       </c>
       <c r="D14" s="1">
-        <v>9.6417</v>
+        <v>9.661</v>
       </c>
       <c r="E14" s="1">
-        <v>11157.4979</v>
+        <v>11135.1498</v>
       </c>
       <c r="F14" s="1">
-        <v>-11157.4979</v>
+        <v>-11135.1498</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>107577.2472</v>
+        <v>107146.8651</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>107577.2472</v>
+        <v>107146.8651</v>
       </c>
       <c r="K14" s="1">
-        <v>121047.5189</v>
+        <v>121047.9883</v>
       </c>
       <c r="L14" s="1">
-        <v>10.849</v>
+        <v>10.8708</v>
       </c>
       <c r="M14" s="1">
         <v>0.5</v>
       </c>
       <c r="N14" s="1">
-        <v>4585.5446</v>
+        <v>4576.358</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>112162.7919</v>
+        <v>111723.2231</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0673</v>
+        <v>-0.06759999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -2922,7 +2922,7 @@
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.7109375" style="1" customWidth="1"/>
     <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
     <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
     <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
     <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
@@ -2992,16 +2992,16 @@
         <v>10.9136</v>
       </c>
       <c r="C2" s="1">
-        <v>10.9136</v>
+        <v>10.8918</v>
       </c>
       <c r="D2" s="1">
-        <v>10.9136</v>
+        <v>10.9355</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>916.2879</v>
+        <v>914.4529</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3039,34 +3039,34 @@
         <v>11.2587</v>
       </c>
       <c r="C3" s="1">
-        <v>11.2586</v>
+        <v>11.2362</v>
       </c>
       <c r="D3" s="1">
-        <v>11.2587</v>
+        <v>11.2813</v>
       </c>
       <c r="E3" s="1">
-        <v>916.2879</v>
+        <v>914.4529</v>
       </c>
       <c r="F3" s="1">
-        <v>869.014</v>
+        <v>874.4081</v>
       </c>
       <c r="G3" s="1">
         <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>10316.1193</v>
+        <v>10274.976</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10316.1193</v>
+        <v>10274.976</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>10.9136</v>
+        <v>10.9355</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -3078,10 +3078,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9783.9676</v>
+        <v>-9864.459800000001</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0316</v>
+        <v>0.0275</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3092,34 +3092,34 @@
         <v>11.6434</v>
       </c>
       <c r="C4" s="1">
-        <v>11.6434</v>
+        <v>11.6201</v>
       </c>
       <c r="D4" s="1">
-        <v>11.6434</v>
+        <v>11.6667</v>
       </c>
       <c r="E4" s="1">
-        <v>1785.3019</v>
+        <v>1788.861</v>
       </c>
       <c r="F4" s="1">
-        <v>817.1165999999999</v>
+        <v>818.7758</v>
       </c>
       <c r="G4" s="1">
         <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>20786.9842</v>
+        <v>20786.7437</v>
       </c>
       <c r="I4" s="1">
-        <v>216.0324</v>
+        <v>135.5402</v>
       </c>
       <c r="J4" s="1">
-        <v>21003.0166</v>
+        <v>20922.2839</v>
       </c>
       <c r="K4" s="1">
-        <v>19783.9676</v>
+        <v>19864.4598</v>
       </c>
       <c r="L4" s="1">
-        <v>11.0816</v>
+        <v>11.1045</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -3131,10 +3131,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9514.015799999999</v>
+        <v>-9552.4112</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0338</v>
+        <v>0.0319</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3145,49 +3145,49 @@
         <v>11.3141</v>
       </c>
       <c r="C5" s="1">
-        <v>11.3141</v>
+        <v>11.2915</v>
       </c>
       <c r="D5" s="1">
-        <v>11.3141</v>
+        <v>11.3368</v>
       </c>
       <c r="E5" s="1">
-        <v>2602.4185</v>
+        <v>2607.6368</v>
       </c>
       <c r="F5" s="1">
-        <v>945.9008</v>
+        <v>933.52</v>
       </c>
       <c r="G5" s="1">
         <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>29444.0236</v>
+        <v>29444.1306</v>
       </c>
       <c r="I5" s="1">
-        <v>702.0166</v>
+        <v>583.129</v>
       </c>
       <c r="J5" s="1">
-        <v>30146.0402</v>
+        <v>30027.2595</v>
       </c>
       <c r="K5" s="1">
-        <v>29297.9834</v>
+        <v>29416.871</v>
       </c>
       <c r="L5" s="1">
-        <v>11.258</v>
+        <v>11.281</v>
       </c>
       <c r="M5" s="1">
         <v>0.4</v>
       </c>
       <c r="N5" s="1">
-        <v>642.7087</v>
+        <v>643.99</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-10059.3079</v>
+        <v>-9939.138999999999</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0276</v>
+        <v>-0.0289</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3198,34 +3198,34 @@
         <v>11.003</v>
       </c>
       <c r="C6" s="1">
-        <v>11.003</v>
+        <v>10.981</v>
       </c>
       <c r="D6" s="1">
-        <v>11.003</v>
+        <v>11.0251</v>
       </c>
       <c r="E6" s="1">
-        <v>3548.3194</v>
+        <v>3541.1567</v>
       </c>
       <c r="F6" s="1">
-        <v>967.2551999999999</v>
+        <v>965.4325</v>
       </c>
       <c r="G6" s="1">
         <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>39042.158</v>
+        <v>38885.4419</v>
       </c>
       <c r="I6" s="1">
-        <v>642.7087</v>
+        <v>643.99</v>
       </c>
       <c r="J6" s="1">
-        <v>39684.8667</v>
+        <v>39529.4319</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>11.2729</v>
+        <v>11.2957</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10642.7087</v>
+        <v>-10643.99</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0115</v>
+        <v>-0.0124</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3251,34 +3251,34 @@
         <v>11.1102</v>
       </c>
       <c r="C7" s="1">
-        <v>11.1102</v>
+        <v>11.088</v>
       </c>
       <c r="D7" s="1">
-        <v>11.1103</v>
+        <v>11.1325</v>
       </c>
       <c r="E7" s="1">
-        <v>4515.5745</v>
+        <v>4506.5892</v>
       </c>
       <c r="F7" s="1">
-        <v>900.0657</v>
+        <v>898.2708</v>
       </c>
       <c r="G7" s="1">
         <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>50168.9363</v>
+        <v>49969.0614</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>50168.9363</v>
+        <v>49969.0614</v>
       </c>
       <c r="K7" s="1">
-        <v>50642.7087</v>
+        <v>50643.99</v>
       </c>
       <c r="L7" s="1">
-        <v>11.2151</v>
+        <v>11.2378</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -3293,7 +3293,7 @@
         <v>-10000</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0097</v>
+        <v>0.0089</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3304,49 +3304,49 @@
         <v>10.623</v>
       </c>
       <c r="C8" s="1">
-        <v>10.623</v>
+        <v>10.6017</v>
       </c>
       <c r="D8" s="1">
-        <v>10.623</v>
+        <v>10.6443</v>
       </c>
       <c r="E8" s="1">
-        <v>5415.6402</v>
+        <v>5404.8601</v>
       </c>
       <c r="F8" s="1">
-        <v>941.3537</v>
+        <v>939.47</v>
       </c>
       <c r="G8" s="1">
         <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>57530.3464</v>
+        <v>57300.7049</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>57530.3464</v>
+        <v>57300.7049</v>
       </c>
       <c r="K8" s="1">
-        <v>60642.7087</v>
+        <v>60643.99</v>
       </c>
       <c r="L8" s="1">
-        <v>11.1977</v>
+        <v>11.2203</v>
       </c>
       <c r="M8" s="1">
         <v>0.1</v>
       </c>
       <c r="N8" s="1">
-        <v>406.4017</v>
+        <v>405.593</v>
       </c>
       <c r="O8" s="1">
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-9593.5983</v>
+        <v>-9594.406999999999</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0439</v>
+        <v>-0.0445</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3357,34 +3357,34 @@
         <v>9.977</v>
       </c>
       <c r="C9" s="1">
-        <v>9.977</v>
+        <v>9.957000000000001</v>
       </c>
       <c r="D9" s="1">
-        <v>9.977</v>
+        <v>9.997</v>
       </c>
       <c r="E9" s="1">
-        <v>6356.9939</v>
+        <v>6344.33</v>
       </c>
       <c r="F9" s="1">
-        <v>1043.0392</v>
+        <v>1040.8716</v>
       </c>
       <c r="G9" s="1">
         <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>63423.7283</v>
+        <v>63170.4939</v>
       </c>
       <c r="I9" s="1">
-        <v>406.4017</v>
+        <v>405.593</v>
       </c>
       <c r="J9" s="1">
-        <v>63830.13</v>
+        <v>63576.0869</v>
       </c>
       <c r="K9" s="1">
-        <v>70642.7087</v>
+        <v>70643.99000000001</v>
       </c>
       <c r="L9" s="1">
-        <v>11.1126</v>
+        <v>11.135</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -3396,10 +3396,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-10406.4017</v>
+        <v>-10405.593</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0548</v>
+        <v>-0.0553</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3410,34 +3410,34 @@
         <v>10.5542</v>
       </c>
       <c r="C10" s="1">
-        <v>10.5542</v>
+        <v>10.5331</v>
       </c>
       <c r="D10" s="1">
-        <v>10.5542</v>
+        <v>10.5754</v>
       </c>
       <c r="E10" s="1">
-        <v>7400.0331</v>
+        <v>7385.2016</v>
       </c>
       <c r="F10" s="1">
-        <v>947.4901</v>
+        <v>945.5907</v>
       </c>
       <c r="G10" s="1">
         <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>78101.42909999999</v>
+        <v>77789.0667</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>78101.42909999999</v>
+        <v>77789.0667</v>
       </c>
       <c r="K10" s="1">
-        <v>81049.11040000001</v>
+        <v>81049.583</v>
       </c>
       <c r="L10" s="1">
-        <v>10.9525</v>
+        <v>10.9746</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -3452,7 +3452,7 @@
         <v>-10000</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0579</v>
+        <v>0.0573</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3463,34 +3463,34 @@
         <v>10.7815</v>
       </c>
       <c r="C11" s="1">
-        <v>10.7815</v>
+        <v>10.7599</v>
       </c>
       <c r="D11" s="1">
-        <v>10.7815</v>
+        <v>10.8031</v>
       </c>
       <c r="E11" s="1">
-        <v>8347.5232</v>
+        <v>8330.792299999999</v>
       </c>
       <c r="F11" s="1">
-        <v>927.5146999999999</v>
+        <v>925.6602</v>
       </c>
       <c r="G11" s="1">
         <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>89998.8211</v>
+        <v>89638.49189999999</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>89998.8211</v>
+        <v>89638.49189999999</v>
       </c>
       <c r="K11" s="1">
-        <v>91049.11040000001</v>
+        <v>91049.583</v>
       </c>
       <c r="L11" s="1">
-        <v>10.9073</v>
+        <v>10.9293</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -3505,7 +3505,7 @@
         <v>-10000</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0215</v>
+        <v>0.0211</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3516,34 +3516,34 @@
         <v>10.9292</v>
       </c>
       <c r="C12" s="1">
-        <v>10.9292</v>
+        <v>10.9073</v>
       </c>
       <c r="D12" s="1">
-        <v>10.9292</v>
+        <v>10.9511</v>
       </c>
       <c r="E12" s="1">
-        <v>9275.037899999999</v>
+        <v>9256.452499999999</v>
       </c>
       <c r="F12" s="1">
-        <v>914.9801</v>
+        <v>913.1503</v>
       </c>
       <c r="G12" s="1">
         <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>101368.7442</v>
+        <v>100962.9045</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>101368.7442</v>
+        <v>100962.9045</v>
       </c>
       <c r="K12" s="1">
-        <v>101049.1104</v>
+        <v>101049.583</v>
       </c>
       <c r="L12" s="1">
-        <v>10.8947</v>
+        <v>10.9167</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -3558,7 +3558,7 @@
         <v>-10000</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0137</v>
+        <v>0.0133</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3569,34 +3569,34 @@
         <v>10.337</v>
       </c>
       <c r="C13" s="1">
-        <v>10.337</v>
+        <v>10.3163</v>
       </c>
       <c r="D13" s="1">
-        <v>10.337</v>
+        <v>10.3577</v>
       </c>
       <c r="E13" s="1">
-        <v>10190.018</v>
+        <v>10169.6028</v>
       </c>
       <c r="F13" s="1">
-        <v>967.3987</v>
+        <v>965.4653</v>
       </c>
       <c r="G13" s="1">
         <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>105334.2156</v>
+        <v>104912.6732</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>105334.2156</v>
+        <v>104912.6732</v>
       </c>
       <c r="K13" s="1">
-        <v>111049.1104</v>
+        <v>111049.583</v>
       </c>
       <c r="L13" s="1">
-        <v>10.8978</v>
+        <v>10.9198</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -3611,7 +3611,7 @@
         <v>-10000</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0542</v>
+        <v>-0.0545</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3622,49 +3622,49 @@
         <v>9.6417</v>
       </c>
       <c r="C14" s="1">
-        <v>9.6417</v>
+        <v>9.622400000000001</v>
       </c>
       <c r="D14" s="1">
-        <v>9.6417</v>
+        <v>9.661</v>
       </c>
       <c r="E14" s="1">
-        <v>11157.4166</v>
+        <v>11135.0681</v>
       </c>
       <c r="F14" s="1">
-        <v>-11157.4166</v>
+        <v>-11135.0681</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>107576.4638</v>
+        <v>107146.0792</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>107576.4638</v>
+        <v>107146.0792</v>
       </c>
       <c r="K14" s="1">
-        <v>121049.1104</v>
+        <v>121049.583</v>
       </c>
       <c r="L14" s="1">
-        <v>10.8492</v>
+        <v>10.871</v>
       </c>
       <c r="M14" s="1">
         <v>0.5</v>
       </c>
       <c r="N14" s="1">
-        <v>4585.5081</v>
+        <v>4576.3213</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>112161.9719</v>
+        <v>111722.4005</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0673</v>
+        <v>-0.06759999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -3760,16 +3760,16 @@
         <v>10.9136</v>
       </c>
       <c r="C2" s="1">
-        <v>10.9136</v>
+        <v>10.8918</v>
       </c>
       <c r="D2" s="1">
-        <v>10.9136</v>
+        <v>10.9355</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>916.2879</v>
+        <v>914.4529</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3807,34 +3807,34 @@
         <v>11.2587</v>
       </c>
       <c r="C3" s="1">
-        <v>11.2586</v>
+        <v>11.2362</v>
       </c>
       <c r="D3" s="1">
-        <v>11.2587</v>
+        <v>11.2813</v>
       </c>
       <c r="E3" s="1">
-        <v>916.2879</v>
+        <v>914.4529</v>
       </c>
       <c r="F3" s="1">
-        <v>873.455</v>
+        <v>878.8579999999999</v>
       </c>
       <c r="G3" s="1">
         <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>10316.1193</v>
+        <v>10274.976</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10316.1193</v>
+        <v>10274.976</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>10.9136</v>
+        <v>10.9355</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -3846,10 +3846,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9833.968000000001</v>
+        <v>-9914.6605</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0316</v>
+        <v>0.0275</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3860,34 +3860,34 @@
         <v>11.6434</v>
       </c>
       <c r="C4" s="1">
-        <v>11.6434</v>
+        <v>11.6201</v>
       </c>
       <c r="D4" s="1">
-        <v>11.6434</v>
+        <v>11.6667</v>
       </c>
       <c r="E4" s="1">
-        <v>1789.743</v>
+        <v>1793.3109</v>
       </c>
       <c r="F4" s="1">
-        <v>825.6658</v>
+        <v>827.3421</v>
       </c>
       <c r="G4" s="1">
         <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>20838.6931</v>
+        <v>20838.4521</v>
       </c>
       <c r="I4" s="1">
-        <v>166.032</v>
+        <v>85.3395</v>
       </c>
       <c r="J4" s="1">
-        <v>21004.7251</v>
+        <v>20923.7916</v>
       </c>
       <c r="K4" s="1">
-        <v>19833.968</v>
+        <v>19914.6605</v>
       </c>
       <c r="L4" s="1">
-        <v>11.082</v>
+        <v>11.105</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -3899,10 +3899,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9613.5569</v>
+        <v>-9652.3521</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0339</v>
+        <v>0.032</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3913,49 +3913,49 @@
         <v>11.3141</v>
       </c>
       <c r="C5" s="1">
-        <v>11.3141</v>
+        <v>11.2915</v>
       </c>
       <c r="D5" s="1">
-        <v>11.3141</v>
+        <v>11.3368</v>
       </c>
       <c r="E5" s="1">
-        <v>2615.4087</v>
+        <v>2620.653</v>
       </c>
       <c r="F5" s="1">
-        <v>932.6836</v>
+        <v>920.2762</v>
       </c>
       <c r="G5" s="1">
         <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>29590.9959</v>
+        <v>29591.1034</v>
       </c>
       <c r="I5" s="1">
-        <v>552.4751</v>
+        <v>432.9874</v>
       </c>
       <c r="J5" s="1">
-        <v>30143.471</v>
+        <v>30024.0908</v>
       </c>
       <c r="K5" s="1">
-        <v>29447.5249</v>
+        <v>29567.0126</v>
       </c>
       <c r="L5" s="1">
-        <v>11.2592</v>
+        <v>11.2823</v>
       </c>
       <c r="M5" s="1">
         <v>0.4</v>
       </c>
       <c r="N5" s="1">
-        <v>644.3075</v>
+        <v>645.5919</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9908.167600000001</v>
+        <v>-9787.395500000001</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0278</v>
+        <v>-0.0291</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3966,34 +3966,34 @@
         <v>11.003</v>
       </c>
       <c r="C6" s="1">
-        <v>11.003</v>
+        <v>10.981</v>
       </c>
       <c r="D6" s="1">
-        <v>11.003</v>
+        <v>11.0251</v>
       </c>
       <c r="E6" s="1">
-        <v>3548.0923</v>
+        <v>3540.9292</v>
       </c>
       <c r="F6" s="1">
-        <v>967.4005</v>
+        <v>965.5778</v>
       </c>
       <c r="G6" s="1">
         <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>39039.6595</v>
+        <v>38882.9438</v>
       </c>
       <c r="I6" s="1">
-        <v>644.3075</v>
+        <v>645.5919</v>
       </c>
       <c r="J6" s="1">
-        <v>39683.9669</v>
+        <v>39528.5357</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>11.2737</v>
+        <v>11.2965</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -4005,10 +4005,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10644.3075</v>
+        <v>-10645.5919</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0114</v>
+        <v>-0.0124</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4019,34 +4019,34 @@
         <v>11.1102</v>
       </c>
       <c r="C7" s="1">
-        <v>11.1102</v>
+        <v>11.088</v>
       </c>
       <c r="D7" s="1">
-        <v>11.1103</v>
+        <v>11.1325</v>
       </c>
       <c r="E7" s="1">
-        <v>4515.4928</v>
+        <v>4506.507</v>
       </c>
       <c r="F7" s="1">
-        <v>900.0657</v>
+        <v>898.2708</v>
       </c>
       <c r="G7" s="1">
         <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>50168.0278</v>
+        <v>49968.15</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>50168.0278</v>
+        <v>49968.15</v>
       </c>
       <c r="K7" s="1">
-        <v>50644.3075</v>
+        <v>50645.5919</v>
       </c>
       <c r="L7" s="1">
-        <v>11.2157</v>
+        <v>11.2383</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -4061,7 +4061,7 @@
         <v>-10000</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0097</v>
+        <v>0.0089</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4072,49 +4072,49 @@
         <v>10.623</v>
       </c>
       <c r="C8" s="1">
-        <v>10.623</v>
+        <v>10.6017</v>
       </c>
       <c r="D8" s="1">
-        <v>10.623</v>
+        <v>10.6443</v>
       </c>
       <c r="E8" s="1">
-        <v>5415.5585</v>
+        <v>5404.7779</v>
       </c>
       <c r="F8" s="1">
-        <v>941.3537</v>
+        <v>939.47</v>
       </c>
       <c r="G8" s="1">
         <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>57529.4777</v>
+        <v>57299.8335</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>57529.4777</v>
+        <v>57299.8335</v>
       </c>
       <c r="K8" s="1">
-        <v>60644.3075</v>
+        <v>60645.5919</v>
       </c>
       <c r="L8" s="1">
-        <v>11.1982</v>
+        <v>11.2207</v>
       </c>
       <c r="M8" s="1">
         <v>0.1</v>
       </c>
       <c r="N8" s="1">
-        <v>406.3943</v>
+        <v>405.5856</v>
       </c>
       <c r="O8" s="1">
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-9593.6057</v>
+        <v>-9594.4144</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0439</v>
+        <v>-0.0445</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4125,34 +4125,34 @@
         <v>9.977</v>
       </c>
       <c r="C9" s="1">
-        <v>9.977</v>
+        <v>9.957000000000001</v>
       </c>
       <c r="D9" s="1">
-        <v>9.977</v>
+        <v>9.997</v>
       </c>
       <c r="E9" s="1">
-        <v>6356.9121</v>
+        <v>6344.2478</v>
       </c>
       <c r="F9" s="1">
-        <v>1043.0384</v>
+        <v>1040.8708</v>
       </c>
       <c r="G9" s="1">
         <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>63422.9124</v>
+        <v>63169.6755</v>
       </c>
       <c r="I9" s="1">
-        <v>406.3943</v>
+        <v>405.5856</v>
       </c>
       <c r="J9" s="1">
-        <v>63829.3068</v>
+        <v>63575.2611</v>
       </c>
       <c r="K9" s="1">
-        <v>70644.3075</v>
+        <v>70645.5919</v>
       </c>
       <c r="L9" s="1">
-        <v>11.113</v>
+        <v>11.1354</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -4164,10 +4164,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-10406.3943</v>
+        <v>-10405.5856</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0548</v>
+        <v>-0.0553</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4178,34 +4178,34 @@
         <v>10.5542</v>
       </c>
       <c r="C10" s="1">
-        <v>10.5542</v>
+        <v>10.5331</v>
       </c>
       <c r="D10" s="1">
-        <v>10.5542</v>
+        <v>10.5754</v>
       </c>
       <c r="E10" s="1">
-        <v>7399.9506</v>
+        <v>7385.1186</v>
       </c>
       <c r="F10" s="1">
-        <v>947.4901</v>
+        <v>945.5907</v>
       </c>
       <c r="G10" s="1">
         <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>78100.5582</v>
+        <v>77788.1931</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>78100.5582</v>
+        <v>77788.1931</v>
       </c>
       <c r="K10" s="1">
-        <v>81050.7018</v>
+        <v>81051.1776</v>
       </c>
       <c r="L10" s="1">
-        <v>10.9529</v>
+        <v>10.9749</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -4220,7 +4220,7 @@
         <v>-10000</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0579</v>
+        <v>0.0573</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4231,34 +4231,34 @@
         <v>10.7815</v>
       </c>
       <c r="C11" s="1">
-        <v>10.7815</v>
+        <v>10.7599</v>
       </c>
       <c r="D11" s="1">
-        <v>10.7815</v>
+        <v>10.8031</v>
       </c>
       <c r="E11" s="1">
-        <v>8347.440699999999</v>
+        <v>8330.7093</v>
       </c>
       <c r="F11" s="1">
-        <v>927.5146999999999</v>
+        <v>925.6602</v>
       </c>
       <c r="G11" s="1">
         <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>89997.93150000001</v>
+        <v>89637.5995</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>89997.93150000001</v>
+        <v>89637.5995</v>
       </c>
       <c r="K11" s="1">
-        <v>91050.7018</v>
+        <v>91051.1776</v>
       </c>
       <c r="L11" s="1">
-        <v>10.9076</v>
+        <v>10.9296</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -4273,7 +4273,7 @@
         <v>-10000</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0215</v>
+        <v>0.0211</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4284,34 +4284,34 @@
         <v>10.9292</v>
       </c>
       <c r="C12" s="1">
-        <v>10.9292</v>
+        <v>10.9073</v>
       </c>
       <c r="D12" s="1">
-        <v>10.9292</v>
+        <v>10.9511</v>
       </c>
       <c r="E12" s="1">
-        <v>9274.955400000001</v>
+        <v>9256.3696</v>
       </c>
       <c r="F12" s="1">
-        <v>914.9801</v>
+        <v>913.1503</v>
       </c>
       <c r="G12" s="1">
         <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>101367.8424</v>
+        <v>100961.9999</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>101367.8424</v>
+        <v>100961.9999</v>
       </c>
       <c r="K12" s="1">
-        <v>101050.7018</v>
+        <v>101051.1776</v>
       </c>
       <c r="L12" s="1">
-        <v>10.895</v>
+        <v>10.9169</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -4326,7 +4326,7 @@
         <v>-10000</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0137</v>
+        <v>0.0133</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4337,34 +4337,34 @@
         <v>10.337</v>
       </c>
       <c r="C13" s="1">
-        <v>10.337</v>
+        <v>10.3163</v>
       </c>
       <c r="D13" s="1">
-        <v>10.337</v>
+        <v>10.3577</v>
       </c>
       <c r="E13" s="1">
-        <v>10189.9354</v>
+        <v>10169.5199</v>
       </c>
       <c r="F13" s="1">
-        <v>967.3987</v>
+        <v>965.4653</v>
       </c>
       <c r="G13" s="1">
         <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>105333.3626</v>
+        <v>104911.8177</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>105333.3626</v>
+        <v>104911.8177</v>
       </c>
       <c r="K13" s="1">
-        <v>111050.7018</v>
+        <v>111051.1776</v>
       </c>
       <c r="L13" s="1">
-        <v>10.8981</v>
+        <v>10.92</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -4379,7 +4379,7 @@
         <v>-10000</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0542</v>
+        <v>-0.0545</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4390,49 +4390,49 @@
         <v>9.6417</v>
       </c>
       <c r="C14" s="1">
-        <v>9.6417</v>
+        <v>9.622400000000001</v>
       </c>
       <c r="D14" s="1">
-        <v>9.6417</v>
+        <v>9.661</v>
       </c>
       <c r="E14" s="1">
-        <v>11157.3341</v>
+        <v>11134.9852</v>
       </c>
       <c r="F14" s="1">
-        <v>-11157.3341</v>
+        <v>-11134.9852</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>107575.6682</v>
+        <v>107145.2812</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>107575.6682</v>
+        <v>107145.2812</v>
       </c>
       <c r="K14" s="1">
-        <v>121050.7018</v>
+        <v>121051.1776</v>
       </c>
       <c r="L14" s="1">
-        <v>10.8494</v>
+        <v>10.8712</v>
       </c>
       <c r="M14" s="1">
         <v>0.5</v>
       </c>
       <c r="N14" s="1">
-        <v>4585.4709</v>
+        <v>4576.2839</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>112161.1392</v>
+        <v>111721.5651</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0673</v>
+        <v>-0.06759999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -4490,19 +4490,19 @@
         <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>10.8504</v>
+        <v>10.8722</v>
       </c>
       <c r="D3" s="1">
-        <v>10.8407</v>
+        <v>10.8659</v>
       </c>
       <c r="E3" s="1">
-        <v>10.849</v>
+        <v>10.8708</v>
       </c>
       <c r="F3" s="1">
-        <v>10.8492</v>
+        <v>10.871</v>
       </c>
       <c r="G3" s="1">
-        <v>10.8494</v>
+        <v>10.8712</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
@@ -4513,19 +4513,19 @@
         <v>-0.1133</v>
       </c>
       <c r="C4" s="3">
-        <v>-0.0911</v>
+        <v>-0.1037</v>
       </c>
       <c r="D4" s="3">
-        <v>-0.09</v>
+        <v>-0.1029</v>
       </c>
       <c r="E4" s="3">
-        <v>-0.091</v>
+        <v>-0.1034</v>
       </c>
       <c r="F4" s="3">
-        <v>-0.091</v>
+        <v>-0.1034</v>
       </c>
       <c r="G4" s="3">
-        <v>-0.091</v>
+        <v>-0.1034</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
@@ -4536,19 +4536,19 @@
         <v>0.1408</v>
       </c>
       <c r="C5" s="3">
-        <v>0.1369</v>
+        <v>0.1354</v>
       </c>
       <c r="D5" s="3">
-        <v>0.1369</v>
+        <v>0.1356</v>
       </c>
       <c r="E5" s="3">
-        <v>0.1372</v>
+        <v>0.1357</v>
       </c>
       <c r="F5" s="3">
-        <v>0.1372</v>
+        <v>0.1358</v>
       </c>
       <c r="G5" s="3">
-        <v>0.1373</v>
+        <v>0.1358</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
@@ -4559,19 +4559,19 @@
         <v>-0.9487</v>
       </c>
       <c r="C6" s="4">
-        <v>-0.8139999999999999</v>
+        <v>-0.9154</v>
       </c>
       <c r="D6" s="4">
-        <v>-0.8064</v>
+        <v>-0.9092</v>
       </c>
       <c r="E6" s="4">
-        <v>-0.8113</v>
+        <v>-0.9114</v>
       </c>
       <c r="F6" s="4">
-        <v>-0.8111</v>
+        <v>-0.9112</v>
       </c>
       <c r="G6" s="4">
-        <v>-0.8109</v>
+        <v>-0.9111</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
@@ -4579,19 +4579,19 @@
         <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>-0.1192</v>
+        <v>-0.1257</v>
       </c>
       <c r="D7" s="3">
-        <v>-0.1185</v>
+        <v>-0.1251</v>
       </c>
       <c r="E7" s="3">
-        <v>-0.1186</v>
+        <v>-0.1251</v>
       </c>
       <c r="F7" s="3">
-        <v>-0.1186</v>
+        <v>-0.1251</v>
       </c>
       <c r="G7" s="3">
-        <v>-0.1186</v>
+        <v>-0.1251</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
@@ -4599,19 +4599,19 @@
         <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>5629.3299</v>
+        <v>5617.9878</v>
       </c>
       <c r="D8" s="1">
-        <v>5575.1125</v>
+        <v>5584.6363</v>
       </c>
       <c r="E8" s="1">
-        <v>5633.0635</v>
+        <v>5624.3463</v>
       </c>
       <c r="F8" s="1">
-        <v>5634.6185</v>
+        <v>5625.9042</v>
       </c>
       <c r="G8" s="1">
-        <v>5636.1728</v>
+        <v>5627.4615</v>
       </c>
     </row>
   </sheetData>

--- a/output/1Y_P105_KFSDIV.xlsx
+++ b/output/1Y_P105_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -721,7 +724,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>10.9136</v>
@@ -765,7 +768,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>11.2587</v>
@@ -815,7 +818,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>11.6434</v>
@@ -865,7 +868,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>11.3141</v>
@@ -915,7 +918,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>11.003</v>
@@ -965,7 +968,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>11.1102</v>
@@ -1015,7 +1018,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>10.623</v>
@@ -1065,7 +1068,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>9.977</v>
@@ -1115,7 +1118,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>10.5542</v>
@@ -1165,7 +1168,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>10.7815</v>
@@ -1215,7 +1218,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>10.9292</v>
@@ -1265,7 +1268,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>10.337</v>
@@ -1315,7 +1318,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>9.6417</v>
@@ -1450,7 +1453,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>10.9136</v>
@@ -1497,7 +1500,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>11.2587</v>
@@ -1550,7 +1553,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>11.6434</v>
@@ -1603,7 +1606,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>11.3141</v>
@@ -1656,7 +1659,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>11.003</v>
@@ -1709,7 +1712,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>11.1102</v>
@@ -1762,7 +1765,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>10.623</v>
@@ -1815,7 +1818,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>9.977</v>
@@ -1868,7 +1871,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>10.5542</v>
@@ -1921,7 +1924,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>10.7815</v>
@@ -1974,7 +1977,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>10.9292</v>
@@ -2027,7 +2030,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>10.337</v>
@@ -2080,7 +2083,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>9.6417</v>
@@ -2218,7 +2221,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>10.9136</v>
@@ -2265,7 +2268,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>11.2587</v>
@@ -2318,7 +2321,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>11.6434</v>
@@ -2371,7 +2374,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>11.3141</v>
@@ -2424,7 +2427,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>11.003</v>
@@ -2477,7 +2480,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>11.1102</v>
@@ -2530,7 +2533,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>10.623</v>
@@ -2583,7 +2586,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>9.977</v>
@@ -2636,7 +2639,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>10.5542</v>
@@ -2689,7 +2692,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>10.7815</v>
@@ -2742,7 +2745,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>10.9292</v>
@@ -2795,7 +2798,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>10.337</v>
@@ -2848,7 +2851,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>9.6417</v>
@@ -2986,7 +2989,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>10.9136</v>
@@ -3033,7 +3036,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>11.2587</v>
@@ -3086,7 +3089,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>11.6434</v>
@@ -3139,7 +3142,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>11.3141</v>
@@ -3192,7 +3195,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>11.003</v>
@@ -3245,7 +3248,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>11.1102</v>
@@ -3298,7 +3301,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>10.623</v>
@@ -3351,7 +3354,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>9.977</v>
@@ -3404,7 +3407,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>10.5542</v>
@@ -3457,7 +3460,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>10.7815</v>
@@ -3510,7 +3513,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>10.9292</v>
@@ -3563,7 +3566,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>10.337</v>
@@ -3616,7 +3619,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>9.6417</v>
@@ -3754,7 +3757,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>10.9136</v>
@@ -3801,7 +3804,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>11.2587</v>
@@ -3854,7 +3857,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>11.6434</v>
@@ -3907,7 +3910,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>11.3141</v>
@@ -3960,7 +3963,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>11.003</v>
@@ -4013,7 +4016,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>11.1102</v>
@@ -4066,7 +4069,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>10.623</v>
@@ -4119,7 +4122,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>9.977</v>
@@ -4172,7 +4175,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>10.5542</v>
@@ -4225,7 +4228,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>10.7815</v>
@@ -4278,7 +4281,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>10.9292</v>
@@ -4331,7 +4334,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>10.337</v>
@@ -4384,7 +4387,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>9.6417</v>
@@ -4442,13 +4445,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
@@ -4614,6 +4617,26 @@
         <v>6458.945</v>
       </c>
     </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.8851</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.8858</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.8852</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.8852</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.8851</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
